--- a/Experiment_08/Lab8.xlsx
+++ b/Experiment_08/Lab8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive-Macau University of Science and Technology\OneDrive - Macau University of Science and Technology\3rd Yr. in MUST\EIE341 Analog Circuit Experiment\Experiment_08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OD-MUST_student\OneDrive - Macau University of Science and Technology\3rd Yr. in MUST\EIE341 Analog Circuit Experiment\Experiment_08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B18A34-F006-4CC3-BA67-F065F6D1C7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17281ED0-B1A2-4865-B807-D4E99395ACBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="360" windowWidth="22065" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1155" yWindow="2910" windowWidth="22065" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -965,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1298,54 +1298,51 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C11">
-        <v>0.17</v>
+        <v>0.34</v>
       </c>
       <c r="D11">
-        <v>0.34</v>
+        <v>0.42</v>
       </c>
       <c r="E11">
-        <v>0.42</v>
+        <v>0.78</v>
       </c>
       <c r="F11">
-        <v>0.78</v>
+        <v>1.07</v>
       </c>
       <c r="G11">
-        <v>1.07</v>
+        <v>1.56</v>
       </c>
       <c r="H11">
-        <v>1.56</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="I11">
-        <v>2.2200000000000002</v>
+        <v>2.67</v>
       </c>
       <c r="J11">
-        <v>2.67</v>
+        <v>2.9</v>
       </c>
       <c r="K11">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="L11">
-        <v>3.3</v>
+        <v>4.08</v>
       </c>
       <c r="M11">
-        <v>4.08</v>
+        <v>4.95</v>
       </c>
       <c r="N11">
-        <v>4.95</v>
+        <v>5.36</v>
       </c>
       <c r="O11">
-        <v>5.36</v>
+        <v>5.64</v>
       </c>
       <c r="P11">
-        <v>5.64</v>
+        <v>5.96</v>
       </c>
       <c r="Q11">
-        <v>5.96</v>
-      </c>
-      <c r="R11">
         <v>6.44</v>
       </c>
     </row>
@@ -1353,52 +1350,52 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.2E-2</v>
+      </c>
       <c r="C12">
-        <v>1.2E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D12">
-        <v>3.2000000000000001E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="E12">
-        <v>4.2000000000000003E-2</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="F12">
-        <v>0.13700000000000001</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="G12">
-        <v>0.29899999999999999</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="H12">
-        <v>0.69699999999999995</v>
+        <v>1.31</v>
       </c>
       <c r="I12">
-        <v>1.31</v>
+        <v>1.74</v>
       </c>
       <c r="J12">
-        <v>1.74</v>
+        <v>1.93</v>
       </c>
       <c r="K12">
-        <v>1.93</v>
+        <v>2.31</v>
       </c>
       <c r="L12">
-        <v>2.31</v>
+        <v>3.07</v>
       </c>
       <c r="M12">
-        <v>3.07</v>
+        <v>3.89</v>
       </c>
       <c r="N12">
-        <v>3.89</v>
+        <v>4.28</v>
       </c>
       <c r="O12">
-        <v>4.28</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="P12">
-        <v>4.5599999999999996</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="Q12">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="R12">
         <v>5.33</v>
       </c>
     </row>
@@ -1406,52 +1403,52 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0.156</v>
+      </c>
       <c r="C13">
-        <v>0.156</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="D13">
-        <v>0.30499999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="E13">
-        <v>0.36</v>
+        <v>0.64</v>
       </c>
       <c r="F13">
-        <v>0.64</v>
+        <v>0.76</v>
       </c>
       <c r="G13">
-        <v>0.76</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="H13">
-        <v>0.83099999999999996</v>
+        <v>0.873</v>
       </c>
       <c r="I13">
-        <v>0.873</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="J13">
-        <v>0.89500000000000002</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="K13">
-        <v>0.90500000000000003</v>
+        <v>0.92</v>
       </c>
       <c r="L13">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="M13">
-        <v>0.95</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="N13">
-        <v>0.98199999999999998</v>
+        <v>0.999</v>
       </c>
       <c r="O13">
-        <v>0.999</v>
+        <v>1.01</v>
       </c>
       <c r="P13">
-        <v>1.01</v>
+        <v>1.022</v>
       </c>
       <c r="Q13">
-        <v>1.022</v>
-      </c>
-      <c r="R13">
         <v>1.04</v>
       </c>
     </row>
